--- a/data/leaf_CNP/steve soil samples  CN.xlsx
+++ b/data/leaf_CNP/steve soil samples  CN.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="220">
   <si>
     <t>Name</t>
   </si>
@@ -806,6 +806,9 @@
   </si>
   <si>
     <t>acacra_6</t>
+  </si>
+  <si>
+    <t>eucnit_67</t>
   </si>
 </sst>
 </file>
@@ -1660,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,7 +1765,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="C6">
         <v>0.33200000000000002</v>
